--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1918720.724787797</v>
+        <v>1918720.724787798</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>508785.5868005337</v>
+        <v>1218504.100759134</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10299987.76416143</v>
+        <v>10299987.76416144</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>252.0138620605118</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>116.8083228660698</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.42273711523548</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>118.2771170155549</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>118.9482682581906</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>49.19354258233945</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>162.3912409166441</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>280.8930883005168</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.8820444991750082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>86.45551398817781</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>20.97516701831633</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722643</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014439</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>140.56781089617</v>
       </c>
       <c r="E13" t="n">
-        <v>102.1555693376516</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896938</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7644211441611412</v>
+        <v>0.7644211441615913</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>14.73664328357096</v>
+        <v>190.7955476484028</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>67.2913371971799</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037877</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7644211441660934</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>4.511658855087846</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056533</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>109.7158589243159</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>183.1796758467005</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.3438073813678</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>119.5234351551247</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>74.12784487632069</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583842</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>161.1706059301403</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>81.59060302641159</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185922</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>100.3445535712762</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3791,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>161.4046520073179</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>103.3388316365621</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3992,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274074</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>63.37474724264579</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>139.8084418793353</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
         <v>1036.358670716696</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2524.132196633494</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2524.132196633494</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2524.132196633494</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>2171.363541363379</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>2171.363541363379</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y2" t="n">
-        <v>1781.224209387568</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.739153672332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>229.739153672332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>229.739153672332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>229.739153672332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>229.739153672332</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.315630222944</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2577.677255648975</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2323.915470287066</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2323.915470287066</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2323.915470287066</v>
+        <v>2127.158480917584</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.915470287066</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y5" t="n">
-        <v>2323.915470287066</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4665,22 +4665,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>409.2948950230955</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.100961840373</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2182.212521640141</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1936.700801904495</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>323.2572191628423</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C10" t="n">
-        <v>323.2572191628423</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>323.2572191628423</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942405</v>
+        <v>677.5250276678174</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942405</v>
+        <v>463.2366044859801</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628423</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628423</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V10" t="n">
-        <v>323.2572191628423</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W10" t="n">
-        <v>323.2572191628423</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X10" t="n">
-        <v>323.2572191628423</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y10" t="n">
-        <v>323.2572191628423</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,61 +5030,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="12">
@@ -5106,7 +5106,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047986</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061688</v>
+        <v>836.4717212750122</v>
       </c>
       <c r="M12" t="n">
-        <v>1429.324563341649</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N12" t="n">
-        <v>2233.7361416058</v>
+        <v>1961.218619068865</v>
       </c>
       <c r="O12" t="n">
-        <v>2233.7361416058</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2416.379619219151</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.475226584133</v>
+        <v>964.1357418247871</v>
       </c>
       <c r="C13" t="n">
-        <v>927.5390436562263</v>
+        <v>964.1357418247871</v>
       </c>
       <c r="D13" t="n">
-        <v>777.4224042438906</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E13" t="n">
         <v>674.2349604684849</v>
@@ -5194,55 +5194,55 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471198</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247871</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247871</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247871</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247871</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247871</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.123691414373</v>
+        <v>964.1357418247871</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5300,28 +5300,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028589</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>425.4709811065553</v>
+        <v>264.065728683481</v>
       </c>
       <c r="L15" t="n">
-        <v>672.2361090130195</v>
+        <v>654.4977650691253</v>
       </c>
       <c r="M15" t="n">
-        <v>1440.604255405481</v>
+        <v>1422.865911461587</v>
       </c>
       <c r="N15" t="n">
-        <v>1785.124911043099</v>
+        <v>1767.386567099205</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.878325127062</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.0071030383447</v>
+        <v>675.0071030383451</v>
       </c>
       <c r="C16" t="n">
-        <v>675.0071030383447</v>
+        <v>675.0071030383451</v>
       </c>
       <c r="D16" t="n">
-        <v>675.0071030383447</v>
+        <v>675.0071030383451</v>
       </c>
       <c r="E16" t="n">
         <v>674.2349604684849</v>
@@ -5431,19 +5431,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S16" t="n">
         <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>964.1357418247869</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>675.0071030383451</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383447</v>
+        <v>675.0071030383451</v>
       </c>
       <c r="W16" t="n">
-        <v>675.0071030383447</v>
+        <v>675.0071030383451</v>
       </c>
       <c r="X16" t="n">
-        <v>675.0071030383447</v>
+        <v>675.0071030383451</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.0071030383447</v>
+        <v>675.0071030383451</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704857</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L18" t="n">
-        <v>672.2361090130195</v>
+        <v>619.3968890222129</v>
       </c>
       <c r="M18" t="n">
-        <v>1440.604255405481</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N18" t="n">
-        <v>1785.124911043099</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.878325127062</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V19" t="n">
-        <v>1484.03077229167</v>
+        <v>4379.003158825424</v>
       </c>
       <c r="W19" t="n">
-        <v>1194.613602254709</v>
+        <v>4089.585988788464</v>
       </c>
       <c r="X19" t="n">
-        <v>966.6240513566914</v>
+        <v>3861.596437890446</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.8314722131613</v>
+        <v>3640.803858746916</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514085</v>
@@ -5759,43 +5759,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147083</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L21" t="n">
-        <v>684.1208130436052</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M21" t="n">
-        <v>1452.488959436067</v>
+        <v>836.471721275012</v>
       </c>
       <c r="N21" t="n">
-        <v>2256.900537700218</v>
+        <v>1640.883299539163</v>
       </c>
       <c r="O21" t="n">
-        <v>2536.440602918915</v>
+        <v>2310.347060841822</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.2349604684849</v>
+        <v>778.2831413070236</v>
       </c>
       <c r="C22" t="n">
-        <v>674.2349604684849</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>674.2349604684849</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684849</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119733</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035286</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247915</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383497</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V22" t="n">
-        <v>674.2349604684849</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W22" t="n">
-        <v>674.2349604684849</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X22" t="n">
-        <v>674.2349604684849</v>
+        <v>959.9316061372633</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.2349604684849</v>
+        <v>959.9316061372633</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823791</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250805</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>2626.176921308642</v>
+        <v>395.9961833785277</v>
       </c>
       <c r="L24" t="n">
-        <v>2856.140027176991</v>
+        <v>1009.893253135416</v>
       </c>
       <c r="M24" t="n">
-        <v>3176.475346706693</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N24" t="n">
-        <v>3520.996002344311</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O24" t="n">
-        <v>4190.459763646971</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P24" t="n">
-        <v>4710.760385382718</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U25" t="n">
-        <v>1383.283935952973</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="V25" t="n">
-        <v>1128.599447747086</v>
+        <v>3893.336020727023</v>
       </c>
       <c r="W25" t="n">
-        <v>839.1822777101255</v>
+        <v>3603.918850690063</v>
       </c>
       <c r="X25" t="n">
-        <v>611.1927268121082</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y25" t="n">
-        <v>390.4001476685781</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>452.7934607506182</v>
+        <v>437.3556851371411</v>
       </c>
       <c r="L27" t="n">
-        <v>699.5585886570824</v>
+        <v>684.1208130436053</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.893908186784</v>
+        <v>1452.488959436067</v>
       </c>
       <c r="N27" t="n">
-        <v>1364.414563824402</v>
+        <v>2256.900537700218</v>
       </c>
       <c r="O27" t="n">
-        <v>2033.878325127062</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>638.169112894126</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>786.0822064765191</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,10 +6476,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,13 +6494,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704857</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>1002.792923427374</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
-        <v>1771.161069819836</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>2371.535469249458</v>
+        <v>2107.32270539078</v>
       </c>
       <c r="O30" t="n">
-        <v>2371.535469249458</v>
+        <v>2386.862770609478</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2591.885251391687</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3627.330715596855</v>
+        <v>4208.336137767207</v>
       </c>
       <c r="C31" t="n">
-        <v>3627.330715596855</v>
+        <v>4039.3999548393</v>
       </c>
       <c r="D31" t="n">
-        <v>3627.330715596855</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="E31" t="n">
-        <v>3627.330715596855</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="F31" t="n">
-        <v>3627.330715596855</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I31" t="n">
         <v>3459.155393916676</v>
@@ -6649,22 +6649,22 @@
         <v>4549.859459491671</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.859459491671</v>
+        <v>4429.128716910737</v>
       </c>
       <c r="U31" t="n">
-        <v>4260.730820705229</v>
+        <v>4429.128716910737</v>
       </c>
       <c r="V31" t="n">
-        <v>4006.046332499342</v>
+        <v>4429.128716910737</v>
       </c>
       <c r="W31" t="n">
-        <v>4006.046332499342</v>
+        <v>4429.128716910737</v>
       </c>
       <c r="X31" t="n">
-        <v>4006.046332499342</v>
+        <v>4429.128716910737</v>
       </c>
       <c r="Y31" t="n">
-        <v>3785.253753355812</v>
+        <v>4208.336137767207</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704857</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>618.8589595388348</v>
+        <v>479.0983322613956</v>
       </c>
       <c r="M33" t="n">
-        <v>1318.370476901345</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>2122.782055165496</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>1047.141304449396</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
         <v>507.4972331799365</v>
@@ -6886,22 +6886,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347414</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347414</v>
       </c>
       <c r="V34" t="n">
-        <v>1336.117678709276</v>
+        <v>1275.130855347414</v>
       </c>
       <c r="W34" t="n">
-        <v>1046.700508672316</v>
+        <v>1275.130855347414</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742983</v>
+        <v>1047.141304449396</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>1047.141304449396</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6962,19 +6962,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>388.8958536704857</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>1002.792923427374</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M36" t="n">
-        <v>1323.128242957076</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1667.648898594694</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1916.402312678657</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>757.4105722479412</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>588.4743893200343</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>588.4743893200343</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>588.4743893200343</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>441.5844418221239</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7120,25 +7120,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383447</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324578</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954972</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>1159.851616221711</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>939.0590370781809</v>
       </c>
     </row>
     <row r="38">
@@ -7172,10 +7172,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L39" t="n">
-        <v>493.5013994809974</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M39" t="n">
-        <v>1261.869545873459</v>
+        <v>417.5524109899877</v>
       </c>
       <c r="N39" t="n">
-        <v>2066.28112413761</v>
+        <v>1221.963989254139</v>
       </c>
       <c r="O39" t="n">
-        <v>2440.930027762787</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028587</v>
@@ -7357,25 +7357,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>819.0123268140194</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>598.2197476704893</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,19 +7400,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7430,31 +7430,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704857</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>998.0351573716432</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1318.370476901345</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>2122.782055165496</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O42" t="n">
-        <v>2371.535469249458</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.2520934878797</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028587</v>
@@ -7585,34 +7585,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473459</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473459</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>1298.996260473459</v>
       </c>
       <c r="V43" t="n">
-        <v>731.31772835508</v>
+        <v>1298.996260473459</v>
       </c>
       <c r="W43" t="n">
-        <v>441.9005583181194</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X43" t="n">
-        <v>441.9005583181194</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y43" t="n">
-        <v>441.9005583181194</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,13 +7646,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7731,19 +7731,19 @@
         <v>263.5382936126483</v>
       </c>
       <c r="L45" t="n">
-        <v>493.5013994809974</v>
+        <v>877.4353633695371</v>
       </c>
       <c r="M45" t="n">
-        <v>813.8367190106992</v>
+        <v>1645.803509761999</v>
       </c>
       <c r="N45" t="n">
-        <v>1618.24829727485</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O45" t="n">
-        <v>1867.001711358812</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028587</v>
@@ -7831,25 +7831,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.921157035281</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.921157035281</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V46" t="n">
-        <v>1187.921157035281</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W46" t="n">
-        <v>1046.700508672316</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X46" t="n">
-        <v>818.7109577742983</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.9183786307682</v>
+        <v>943.2631727657041</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>24.99768416407341</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>208.5926112002752</v>
+        <v>24.99768416407369</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,16 +10440,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,19 +11142,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172073</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>8.047662122042368</v>
       </c>
       <c r="E13" t="n">
-        <v>44.27839330891759</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>145.669541502408</v>
+        <v>145.6695415024076</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23944,10 +23944,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>237.401000040257</v>
+        <v>61.34209567542524</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>99.95548390144793</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>251.3732221796619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>281.7256935434895</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338389</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>35.70518909861532</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>23.48817280056946</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,13 +24889,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>102.0241259032646</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>93.11897622230714</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25126,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>90.96703739368775</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>84.902965436966</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25360,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25564,7 +25564,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25597,25 +25597,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>125.365101817761</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>5.842169091309927</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25834,25 +25834,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>183.1841667000289</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>116.4572329392915</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26083,10 +26083,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>146.7145564572557</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879815.3844098455</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098455</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098455</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879815.3844098451</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721362</v>
+        <v>488786.324672136</v>
       </c>
       <c r="G2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="H2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="I2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="I2" t="n">
-        <v>488786.3246721358</v>
-      </c>
       <c r="J2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="L2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="M2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="M2" t="n">
-        <v>488786.324672136</v>
-      </c>
       <c r="N2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721361</v>
       </c>
       <c r="O2" t="n">
         <v>488786.324672136</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768968</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758698</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758696</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758697</v>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>787.7936905758696</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="N4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905758696</v>
       </c>
-      <c r="O4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871669</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871667</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871665</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298734.9902933963</v>
+        <v>-298734.9902933961</v>
       </c>
       <c r="C6" t="n">
-        <v>291232.8889211481</v>
+        <v>291232.8889211487</v>
       </c>
       <c r="D6" t="n">
-        <v>291232.8889211487</v>
+        <v>291232.8889211488</v>
       </c>
       <c r="E6" t="n">
-        <v>-129148.8314440529</v>
+        <v>-129148.8314440534</v>
       </c>
       <c r="F6" t="n">
-        <v>396011.2050328436</v>
+        <v>396011.2050328435</v>
       </c>
       <c r="G6" t="n">
+        <v>396011.205032844</v>
+      </c>
+      <c r="H6" t="n">
         <v>396011.2050328435</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>396011.2050328434</v>
       </c>
-      <c r="I6" t="n">
-        <v>396011.2050328433</v>
-      </c>
       <c r="J6" t="n">
-        <v>219587.9858402506</v>
+        <v>219587.9858402504</v>
       </c>
       <c r="K6" t="n">
         <v>396011.2050328435</v>
       </c>
       <c r="L6" t="n">
-        <v>396011.2050328434</v>
+        <v>396011.2050328435</v>
       </c>
       <c r="M6" t="n">
-        <v>261210.1897990063</v>
+        <v>261210.1897990062</v>
       </c>
       <c r="N6" t="n">
-        <v>396011.2050328435</v>
+        <v>396011.2050328436</v>
       </c>
       <c r="O6" t="n">
         <v>396011.2050328435</v>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541009</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253574</v>
@@ -26802,22 +26802,22 @@
         <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="J4" t="n">
         <v>1215.213643253574</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>130.7199796029688</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27430,7 +27430,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>99.63999749158801</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>141.8240839833923</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>98.17120334210287</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>230.2927004592224</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>99.42193043587289</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>63.31841447239307</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>68.3478804168962</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>385.3558941568786</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>59.97844865839136</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>125.6900249618415</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.647069592719</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946996</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>233.2909036464241</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.1912400440987</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361495</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298633</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.39802836989225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
         <v>0.2670576580354894</v>
@@ -32066,25 +32066,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>204.9457874630627</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>162.0898288053486</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32093,22 +32093,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,43 +32151,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>53.91631260018647</v>
+        <v>144.5929368601193</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32482,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32503,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,16 +32549,16 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32567,10 +32567,10 @@
         <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>61.80647313902594</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32631,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32643,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32655,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,28 +32786,28 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>175.173264505459</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.51477688711833</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622983</v>
@@ -33032,19 +33032,19 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33263,7 +33263,7 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358986</v>
@@ -33272,19 +33272,19 @@
         <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>258.4381250424282</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>171.9901114440528</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33500,28 +33500,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>331.8073893088562</v>
       </c>
       <c r="M33" t="n">
-        <v>383.0062604371802</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33737,28 +33737,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>408.5315900543038</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>231.7356543115321</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33971,31 +33971,31 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>127.1671611527426</v>
+        <v>330.1172231204807</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104651</v>
@@ -34211,25 +34211,25 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>383.0062604371802</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34375,7 +34375,7 @@
         <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565511</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927187</v>
@@ -34451,22 +34451,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>203.8913618981903</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>281.6352516043041</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081123</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109127</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349825</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415668</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>484.5569784787091</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>209.2867536939262</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K15" t="n">
-        <v>331.5695855012823</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>394.3757943289336</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
@@ -35741,10 +35741,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>286.2022781237715</v>
+        <v>376.8789023837043</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36130,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>274.2553891200978</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004663</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>246.2948343646329</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>301.7970625436786</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>151.6102905369459</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>359.1680497882145</v>
+        <v>175.573122752013</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>606.4387873026484</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>32.00833735803128</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>193.253009528982</v>
       </c>
       <c r="M33" t="n">
-        <v>706.5772902651618</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>416.224015537139</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>378.4332359850276</v>
+        <v>581.3832979527658</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>615.2922259607652</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118043</v>
       </c>
       <c r="Q43" t="n">
         <v>39.22569997187477</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.580930408112</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>551.8920241584105</v>
       </c>
       <c r="O45" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>466.123612829911</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1994250.394452602</v>
+        <v>1987233.379560891</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>585694.5618456216</v>
+        <v>608060.9349006916</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.4718665099913</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>253.9085398096167</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="4">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>173.7001491014861</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>258.680315109259</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>49.9899113806424</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.028559943668006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>26.16482379965428</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>99.34508049624304</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>87.90024861273406</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>8.525532102719195</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583938</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>60.54139430663695</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>78.21370159712967</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>56.09365403797996</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>29.18937547121085</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>33.35146980185857</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2769,10 +2769,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>37.27952228077626</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="30">
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>143.2925104849749</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>127.2009505913954</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>14.7366432835706</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1796758466962</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.347695664762796</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670917</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>56.96683326820784</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>169.7438101404428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>130.8849953956086</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>59.32456467617031</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>792.5160654321296</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>792.5160654321296</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2167.012461985812</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>2167.012461985812</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X2" t="n">
-        <v>2167.012461985812</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y2" t="n">
-        <v>2167.012461985812</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1857.168914859137</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.168914859137</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.6044479702274</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>359.6044479702274</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>359.6044479702274</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>262.1862143682812</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>262.1862143682812</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.4378418008113</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.6044479702274</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1448.576038264086</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.715370239897</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1448.576038264086</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545818</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545818</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545818</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5038,34 +5038,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>939.1942790685366</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.071707946799</v>
+        <v>1961.218619068864</v>
       </c>
       <c r="O12" t="n">
         <v>2371.535469249458</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5235,16 +5235,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1410.12814064605</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="14">
@@ -5275,19 +5275,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,28 +5299,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>618.8589595388347</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>1387.227105931296</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.747761568914</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247812</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383394</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324526</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W16" t="n">
-        <v>359.1696912903951</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X16" t="n">
-        <v>359.1696912903951</v>
+        <v>326.6213191924212</v>
       </c>
       <c r="Y16" t="n">
-        <v>359.1696912903951</v>
+        <v>105.8287400488911</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250802</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>2702.67180953001</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>3316.568879286899</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M18" t="n">
-        <v>4084.93702567936</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N18" t="n">
-        <v>4429.457681316978</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O18" t="n">
-        <v>4678.21109540094</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>4860.854573014291</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.0663679705858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>885.1320028377861</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>885.1320028377861</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>595.7148328008255</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>595.7148328008255</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>595.7148328008255</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5731,34 +5731,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5773,28 +5773,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1037.215732779479</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1357.551052309181</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.071707946799</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293931</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>643.8194987924326</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>415.8299478944152</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,10 +6010,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1318.370476901345</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>2122.782055165496</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>2559.836337756808</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2559.836337756808</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4520.375241843983</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4231.246603057541</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>3976.562114851654</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>3687.144944814693</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6205,34 +6205,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,19 +6293,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
         <v>508.1073603047985</v>
@@ -6314,13 +6314,13 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1847.655958041207</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>2192.176613678825</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C28" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>1037.554762151065</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324571</v>
+        <v>1037.554762151065</v>
       </c>
       <c r="W28" t="n">
-        <v>130.9054447954965</v>
+        <v>748.1375921141046</v>
       </c>
       <c r="X28" t="n">
-        <v>130.9054447954965</v>
+        <v>748.1375921141046</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>674.4285624571609</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>981.7486957371225</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1423.179110240432</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3941.006808105545</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C31" t="n">
-        <v>3772.070625177638</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D31" t="n">
-        <v>3772.070625177638</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>3772.070625177638</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>3772.070625177638</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3603.895303497458</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>4860.854573014292</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W31" t="n">
-        <v>4571.437402977332</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X31" t="n">
-        <v>4343.447852079315</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="Y31" t="n">
-        <v>4122.655272935785</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,37 +6712,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126481</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>263.5382936126481</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1031.90644000511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1836.31801826926</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2505.781779571919</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2505.781779571919</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916678</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916678</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916678</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916678</v>
+        <v>112.1025897265188</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380588</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.7234906252</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636329</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403512</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431059</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436456</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803797</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4452.039182201073</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>4197.354693995187</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>3907.937523958226</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X34" t="n">
-        <v>3679.947973060208</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916678</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6949,40 +6949,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250802</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095315</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L36" t="n">
-        <v>3215.807053484692</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M36" t="n">
-        <v>3536.142373014394</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N36" t="n">
-        <v>4340.553951278544</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>4340.553951278544</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>549.5984374701561</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1317.966583862617</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>2023.248313029762</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2023.248313029762</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1495.534759785415</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1495.534759785415</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1271.749344574921</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1271.749344574921</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,7 +7402,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7420,22 +7420,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1224.726987855212</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2029.138566119362</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916677</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916677</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916677</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916677</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929846</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.149147719352</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>4148.02050893291</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V43" t="n">
-        <v>3976.562114851655</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W43" t="n">
-        <v>3687.144944814694</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916677</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916677</v>
+        <v>620.2426249169049</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,16 +7730,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.6075462588844</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C46" t="n">
-        <v>653.6713633309776</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D46" t="n">
-        <v>503.5547239186418</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E46" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
         <v>208.7516828383384</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1366.709204501732</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1112.024716295845</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W46" t="n">
-        <v>822.6075462588844</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X46" t="n">
-        <v>822.6075462588844</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.6075462588844</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9008,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9248,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,19 +9728,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>193.6253655224156</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>112.6947341810875</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>57.9114095787001</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10679,16 +10679,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>379.2112136395066</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,7 +11390,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -11399,7 +11399,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>171.3064480792181</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>225.981604029954</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>208.0236508014477</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>110.3999144253976</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>133.142098661519</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>248.9578301178011</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="30">
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.621317882561215</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>98.5087047976418</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25128,13 +25128,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>103.0576765518812</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>106.61665673903</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>140.3375291694993</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>89.46712937836134</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>82.39383318338517</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>155.3523570029687</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>159.2600886759245</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879815.3844098451</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879815.3844098451</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879815.3844098451</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651769</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651773</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
         <v>488786.324672136</v>
@@ -26328,34 +26328,34 @@
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.3246721358</v>
-      </c>
-      <c r="H2" t="n">
-        <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721357</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721356</v>
       </c>
       <c r="L2" t="n">
         <v>488786.3246721358</v>
       </c>
       <c r="M2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="N2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="O2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="N2" t="n">
-        <v>488786.3246721361</v>
-      </c>
-      <c r="O2" t="n">
-        <v>488786.324672136</v>
-      </c>
       <c r="P2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758693</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758694</v>
@@ -26447,16 +26447,16 @@
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905759314</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26478,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298734.9902933962</v>
+        <v>-298734.9902933963</v>
       </c>
       <c r="C6" t="n">
+        <v>291232.8889211484</v>
+      </c>
+      <c r="D6" t="n">
         <v>291232.8889211488</v>
       </c>
-      <c r="D6" t="n">
-        <v>291232.8889211484</v>
-      </c>
       <c r="E6" t="n">
-        <v>-129148.8314440527</v>
+        <v>-130123.4227037741</v>
       </c>
       <c r="F6" t="n">
-        <v>396011.2050328435</v>
+        <v>395036.6137731217</v>
       </c>
       <c r="G6" t="n">
-        <v>396011.2050328433</v>
+        <v>395036.6137731217</v>
       </c>
       <c r="H6" t="n">
-        <v>396011.2050328435</v>
+        <v>395036.6137731216</v>
       </c>
       <c r="I6" t="n">
-        <v>396011.2050328436</v>
+        <v>395036.6137731218</v>
       </c>
       <c r="J6" t="n">
-        <v>219587.9858402506</v>
+        <v>218613.3945805288</v>
       </c>
       <c r="K6" t="n">
-        <v>396011.2050328434</v>
+        <v>395036.6137731215</v>
       </c>
       <c r="L6" t="n">
-        <v>396011.2050328433</v>
+        <v>395036.6137731217</v>
       </c>
       <c r="M6" t="n">
-        <v>261210.1897990062</v>
+        <v>260235.5985392846</v>
       </c>
       <c r="N6" t="n">
-        <v>396011.2050328436</v>
+        <v>395036.6137731218</v>
       </c>
       <c r="O6" t="n">
-        <v>396011.2050328435</v>
+        <v>395036.6137731217</v>
       </c>
       <c r="P6" t="n">
-        <v>396011.2050328433</v>
+        <v>395036.6137731218</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.4041792317202</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>73.84371866051825</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>38.44538984853284</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>106.5925766617486</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>84.97571041169581</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>212.5560934084268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>339.1080679713533</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>75.2387842164696</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>125.6900249618412</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28538,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31378,7 +31378,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529255</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31603,16 +31603,16 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,22 +31840,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>422.5825992329737</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>163.1953899965973</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -32086,19 +32086,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>394.9841349460421</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32314,28 +32314,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>77.26756385997044</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>288.9613021006076</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32551,22 +32551,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>134.1657216706758</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32730,10 +32730,10 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S23" t="n">
         <v>76.06970478104648</v>
@@ -32788,22 +32788,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>121.8179737395016</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>409.410311565473</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33046,10 +33046,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33262,31 +33262,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33499,28 +33499,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>48.88602756655516</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33736,31 +33736,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33918,7 +33918,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33973,31 +33973,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565529</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34210,22 +34210,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>94.58938287488212</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34450,7 +34450,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
@@ -34459,10 +34459,10 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>770.583261493194</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>414.4614648288824</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>646.2502097783272</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>203.89136189819</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>636.9619643608278</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>366.4516871942608</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36378,10 +36378,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>445.3890035674832</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>53.64359143639404</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>732.9813413934546</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>445.8893075791003</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>118.9815412163827</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37244,7 +37244,7 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006117972</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
         <v>39.22569997187475</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L36" t="n">
-        <v>307.1691145347244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>712.4057870375194</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>345.8554577071672</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
@@ -38107,10 +38107,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1987233.379560891</v>
+        <v>1992172.642409923</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608060.9349006916</v>
+        <v>494523.7589493362</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>258.4202483134169</v>
       </c>
       <c r="F2" t="n">
-        <v>165.4718665099913</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.66385641544537</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>71.95604951071888</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>104.3004803731276</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>16.14365212156734</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>49.9899113806424</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598869</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.7268375758688</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>100.4879364842347</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>87.90024861273406</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.525532102719195</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>196.0316411613153</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>164.3675597136119</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>95.91513413937329</v>
       </c>
     </row>
     <row r="20">
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>158.3284267422284</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>185.1778893774797</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>37.27952228077626</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>73.62809908290188</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>127.2009505913954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>14.7366432835706</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>241.4592132962458</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113147</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>72.76043038242733</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>146.1854691670918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.24096871741</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>237.3965091869239</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>146.1854691670917</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>56.96683326820784</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>120.195568277628</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>66.27128255607077</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.32456467617031</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1150.78176403888</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="C2" t="n">
-        <v>1150.78176403888</v>
+        <v>1624.583944532629</v>
       </c>
       <c r="D2" t="n">
-        <v>792.5160654321296</v>
+        <v>1624.583944532629</v>
       </c>
       <c r="E2" t="n">
-        <v>792.5160654321296</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.921096014692</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1150.78176403888</v>
+        <v>1993.546461473041</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,22 +4430,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.8624625746712</v>
+        <v>2288.192438856585</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>2215.509560562929</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>2215.509560562929</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>2215.509560562929</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>2469.840903686825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2591.795070439306</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>262.1862143682812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>262.1862143682812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>104.4378418008113</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>218.1627947174721</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,13 +5044,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1156.807040804714</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N12" t="n">
-        <v>1961.218619068864</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P12" t="n">
         <v>2554.178946862809</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1410.12814064605</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1120.710970609089</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>892.7214197110717</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>892.7214197110717</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028584</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M15" t="n">
-        <v>334.2881267578673</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022018</v>
+        <v>1899.959921985247</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2148.713336069209</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273991</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>554.6108700904385</v>
+        <v>622.5145983082703</v>
       </c>
       <c r="X16" t="n">
-        <v>326.6213191924212</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="Y16" t="n">
-        <v>105.8287400488911</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
@@ -5533,16 +5533,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>352.9248021894942</v>
       </c>
       <c r="L18" t="n">
-        <v>508.1073603047985</v>
+        <v>966.8218719463829</v>
       </c>
       <c r="M18" t="n">
-        <v>508.1073603047985</v>
+        <v>1735.190018338844</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>2079.710673976462</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>912.983647808858</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5840,7 +5840,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>368.6793866183671</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -6080,16 +6080,16 @@
         <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1890.372576454149</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O24" t="n">
-        <v>2559.836337756808</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2559.836337756808</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028587</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>1311.867897449337</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>1022.450727412377</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>794.4611765143592</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="26">
@@ -6205,34 +6205,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,31 +6293,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M27" t="n">
-        <v>1890.372576454149</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1037.554762151065</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1037.554762151065</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>748.1375921141046</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>748.1375921141046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6460,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,31 +6530,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061687</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M30" t="n">
-        <v>1890.372576454149</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>710.3120936331045</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="C31" t="n">
-        <v>710.3120936331045</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1020.446367141521</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W31" t="n">
-        <v>1020.446367141521</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X31" t="n">
-        <v>891.9605584633442</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y31" t="n">
-        <v>891.9605584633442</v>
+        <v>468.5954956259884</v>
       </c>
     </row>
     <row r="32">
@@ -6682,43 +6682,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6785,13 +6785,13 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061687</v>
+        <v>829.3628462796264</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O33" t="n">
         <v>2623.573505376138</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>579.0685056491545</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C34" t="n">
-        <v>410.1323227212476</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D34" t="n">
-        <v>260.0156833089119</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>112.1025897265188</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6894,16 +6894,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>1255.018075309169</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520942</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="X34" t="n">
-        <v>981.5095496229244</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y34" t="n">
-        <v>760.7169704793943</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K36" t="n">
-        <v>436.8967109626376</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="L36" t="n">
-        <v>1050.793780719526</v>
+        <v>224.7537295707656</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111988</v>
+        <v>993.1218759632268</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.3450129705744</v>
+        <v>282.2470670630124</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705744</v>
+        <v>282.2470670630124</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705744</v>
+        <v>282.2470670630124</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>282.2470670630124</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>282.2470670630124</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347407</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>1275.130855347407</v>
       </c>
       <c r="V37" t="n">
-        <v>675.007103038344</v>
+        <v>1020.44636714152</v>
       </c>
       <c r="W37" t="n">
-        <v>527.3450129705744</v>
+        <v>731.0291971045599</v>
       </c>
       <c r="X37" t="n">
-        <v>527.3450129705744</v>
+        <v>503.0396462065426</v>
       </c>
       <c r="Y37" t="n">
-        <v>527.3450129705744</v>
+        <v>282.2470670630124</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,16 +7165,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7183,43 +7183,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>865.585237852747</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1669.996816116897</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>527.3450129705745</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>527.3450129705745</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,22 +7396,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,10 +7487,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
         <v>508.1073603047985</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>620.2426249169049</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C43" t="n">
-        <v>620.2426249169049</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D43" t="n">
-        <v>620.2426249169049</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F43" t="n">
         <v>415.8104215925219</v>
@@ -7563,10 +7563,10 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1377.506605631005</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1153.721190420511</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227918</v>
+        <v>864.5925516340694</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169049</v>
+        <v>864.5925516340694</v>
       </c>
       <c r="W43" t="n">
-        <v>620.2426249169049</v>
+        <v>864.5925516340694</v>
       </c>
       <c r="X43" t="n">
-        <v>620.2426249169049</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y43" t="n">
-        <v>620.2426249169049</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="44">
@@ -7669,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7733,13 +7733,13 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454149</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>2310.85019082976</v>
       </c>
       <c r="O45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>208.7516828383384</v>
+        <v>760.7169704793943</v>
       </c>
       <c r="C46" t="n">
-        <v>208.7516828383384</v>
+        <v>591.7807875514874</v>
       </c>
       <c r="D46" t="n">
-        <v>208.7516828383384</v>
+        <v>591.7807875514874</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>443.8676939690943</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G46" t="n">
         <v>208.7516828383384</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>496.665036439558</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X46" t="n">
-        <v>268.6754855415407</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.7516828383384</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8783,10 +8783,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9011,10 +9011,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9248,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>195.7226894765961</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>193.6253655224156</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9968,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10205,7 +10205,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10442,7 +10442,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>267.3792667601568</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10682,10 +10682,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10916,10 +10916,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11162,7 +11162,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11390,7 +11390,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -11399,7 +11399,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>79.34404369770259</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23472,16 +23472,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>164.2373947110939</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.3064480792181</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>90.49135717527571</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>61.34209567542521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>122.6695192127215</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>8.165141721149183</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24417,13 +24417,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>66.95975394634834</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>248.9578301178011</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>93.61872201572595</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>98.5087047976418</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25134,13 +25134,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>10.67843002758221</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>93.73313808095025</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>140.3375291694992</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>48.84084321165344</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>140.3375291694993</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>89.46712937836134</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>77.72524170597524</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>79.14976546686047</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>159.2600886759245</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098449</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651769</v>
@@ -26322,40 +26322,40 @@
         <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721357</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="L2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="M2" t="n">
         <v>488786.3246721356</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>488786.3246721356</v>
+      </c>
+      <c r="O2" t="n">
         <v>488786.3246721358</v>
       </c>
-      <c r="M2" t="n">
-        <v>488786.3246721358</v>
-      </c>
-      <c r="N2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="O2" t="n">
-        <v>488786.3246721359</v>
-      </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721361</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338367</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>139059.139180619</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758694</v>
@@ -26432,10 +26432,10 @@
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
@@ -26450,10 +26450,10 @@
         <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758691</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758691</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,7 +26484,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298734.9902933963</v>
+        <v>-298734.9902933962</v>
       </c>
       <c r="C6" t="n">
         <v>291232.8889211484</v>
@@ -26530,40 +26530,40 @@
         <v>291232.8889211488</v>
       </c>
       <c r="E6" t="n">
-        <v>-130123.4227037741</v>
+        <v>-129246.2905700247</v>
       </c>
       <c r="F6" t="n">
-        <v>395036.6137731217</v>
+        <v>395913.7459068711</v>
       </c>
       <c r="G6" t="n">
-        <v>395036.6137731217</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="H6" t="n">
-        <v>395036.6137731216</v>
+        <v>395913.7459068713</v>
       </c>
       <c r="I6" t="n">
-        <v>395036.6137731218</v>
+        <v>395913.7459068713</v>
       </c>
       <c r="J6" t="n">
-        <v>218613.3945805288</v>
+        <v>219490.5267142783</v>
       </c>
       <c r="K6" t="n">
-        <v>395036.6137731215</v>
+        <v>395913.7459068713</v>
       </c>
       <c r="L6" t="n">
-        <v>395036.6137731217</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="M6" t="n">
-        <v>260235.5985392846</v>
+        <v>261112.7306730343</v>
       </c>
       <c r="N6" t="n">
-        <v>395036.6137731218</v>
+        <v>395913.745906871</v>
       </c>
       <c r="O6" t="n">
-        <v>395036.6137731217</v>
+        <v>395913.7459068708</v>
       </c>
       <c r="P6" t="n">
-        <v>395036.6137731218</v>
+        <v>395913.7459068715</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26770,10 +26770,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>123.5101217588449</v>
       </c>
       <c r="F2" t="n">
-        <v>241.4041792317202</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1681237664919</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>95.29077158790895</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>112.1478399845302</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>151.1031689770605</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>84.97571041169581</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809424</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858218</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060685</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>75.2387842164696</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -31369,7 +31369,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31378,7 +31378,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423973</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,22 +31843,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>322.5108230010528</v>
       </c>
       <c r="O12" t="n">
-        <v>163.1953899965973</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -32086,19 +32086,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>225.0728617982313</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32317,22 +32317,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>131.6668188599707</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>288.9613021006076</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32812,7 +32812,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -33028,19 +33028,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508803</v>
+        <v>457.3556036678253</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33265,19 +33265,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508803</v>
+        <v>457.3556036678253</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33505,16 +33505,16 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>92.21452536007962</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>216.4869287318327</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>102.4943942860917</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -34000,13 +34000,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34234,7 +34234,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34392,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34453,16 +34453,16 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>64.61606107314759</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>670.511485261273</v>
       </c>
       <c r="O12" t="n">
-        <v>414.4614648288824</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>409.5612230238382</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>258.2906168981903</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>636.9619643608278</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36208,10 +36208,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>64.38097739326282</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178376</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>53.64359143639404</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111005</v>
+        <v>805.3562659280456</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111005</v>
+        <v>805.3562659280456</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>324.5004908836646</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>343.1107267700523</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>128.8248869802826</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004659</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714616</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686858</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P37" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004659</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178374</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>286.9827555116987</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P40" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>315.8821359054327</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
